--- a/SIMMR QPA/QPANov17.xlsx
+++ b/SIMMR QPA/QPANov17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guti\Documents\R\win-library\3.6\simmr\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes-Analysis\SIMMR QPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588653B0-7658-401A-9561-AA56CC09F403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33596854-8559-49F7-A2AC-DCB1BBA524B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets" sheetId="1" r:id="rId1"/>
@@ -98,18 +98,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,12 +120,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,11 +442,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4948DE50-105B-4A72-9D97-ECACD847B3F9}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -461,513 +458,513 @@
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>-32.5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>2.31</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>-32.47</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>2.68</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>-32.130000000000003</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>2.93</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>-28.4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>3.34</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>-27.84</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>3.43</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>-28.16</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>2.81</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>-28.08</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>3.35</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>-27.34</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>3.57</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>-26.97</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>4.25</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>-27.42</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>3.8</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>-27.24</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>3.82</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>-27.47</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>3.95</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>-27.51</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>3.63</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>-28.29</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>2.77</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>-28.37</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>2.96</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>-27.86</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>2.41</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>-28.01</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>2.99</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>-26.75</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>4.72</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>-26.76</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>4.54</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>-26.69</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>4.6900000000000004</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>-26.87</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>4.68</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>-24.93</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>5.24</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>-24.19</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>5.18</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>-24.61</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>4.82</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>-25.32</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>5.28</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>-24.26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>5.01</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>-24.05</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>4.75</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>-23.98</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>4.32</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>-23.96</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>4.57</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>-25.89</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>6.1</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>-25.79</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>5.97</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>-25.78</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>6.03</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>-25.74</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>6</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>-25.23</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>4.67</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>-25.33</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>4.6900000000000004</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>-25.29</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>4.6900000000000004</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>-25.25</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>4.79</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>-26.3</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>4.8899999999999997</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>-26.15</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>5.0199999999999996</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>-26.23</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>5.04</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>-26.27</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>5.01</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>-25.69</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>6.09</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>-25.61</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>5.74</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>-25.77</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>5.4</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>-22</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>0</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>-42</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="3">
         <v>20</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="4">
         <v>13</v>
       </c>
     </row>
@@ -980,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5769C2C-76EC-4477-87AA-85AA9E349D2E}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,16 +1010,16 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>-31.567</v>
+        <v>-31.566500000000001</v>
       </c>
       <c r="C2">
-        <v>0.93</v>
+        <v>0.92949999999999999</v>
       </c>
       <c r="D2">
-        <v>0.182</v>
+        <v>0.21070437426245639</v>
       </c>
       <c r="E2">
-        <v>0.183</v>
+        <v>0.21168923764172148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1030,16 +1027,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-26.32</v>
+        <v>-26.319749999999999</v>
       </c>
       <c r="C3">
         <v>2.4129999999999998</v>
       </c>
       <c r="D3">
-        <v>4.2999999999999997E-2</v>
+        <v>4.9304327058247152E-2</v>
       </c>
       <c r="E3">
-        <v>0.53600000000000003</v>
+        <v>0.61912465088488799</v>
       </c>
     </row>
   </sheetData>

--- a/SIMMR QPA/QPANov17.xlsx
+++ b/SIMMR QPA/QPANov17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes-Analysis\SIMMR QPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33596854-8559-49F7-A2AC-DCB1BBA524B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776925E3-D34B-4083-96D8-5CA9DF944885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Source</t>
   </si>
@@ -975,10 +975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5769C2C-76EC-4477-87AA-85AA9E349D2E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,6 +1039,23 @@
         <v>0.61912465088488799</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-21.56</v>
+      </c>
+      <c r="C4">
+        <v>3.82</v>
+      </c>
+      <c r="D4">
+        <v>0.06</v>
+      </c>
+      <c r="E4">
+        <v>0.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1046,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923AFFC4-5D99-4670-8F71-3E87D037D088}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,7 +1111,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>-0.41</v>
@@ -1106,6 +1123,23 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="E3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-0.41</v>
+      </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+      <c r="D4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E4">
         <v>1.7</v>
       </c>
     </row>
